--- a/product_details.xlsx
+++ b/product_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>model no</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -461,22 +466,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Realme Narzo 30A (Laser Black, 32 GB)  (3 GB RAM)</t>
+          <t>New Apple iPhone 12 Mini (128GB) - Blue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>₹8,999</t>
+          <t>₹ 71,900.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RMX3171</t>
+          <t>B08L5VN68Y</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>IPhone 12</t>
         </is>
       </c>
     </row>
@@ -486,7 +496,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Realme Narzo 30A (Laser Blue, 32 GB)  (3 GB RAM)</t>
+          <t>realme Narzo 30A (Laser Black, 32 GB)  (3 GB RAM)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -504,104 +514,9 @@
           <t>RMX3171</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Realme Narzo 30A (Laser Blue, 64 GB)  (4 GB RAM)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>flipkart</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>₹9,999</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>RMX3171</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Realme Narzo 30A (Laser Black, 64 GB)  (4 GB RAM)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>flipkart</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>₹9,999</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>RMX3171</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>POCO M3 (Cool Blue, 128 GB)  (6 GB RAM)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>flipkart</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>₹11,999</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MZB087BIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>POCO M3 (Power Black, 128 GB)  (6 GB RAM)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>flipkart</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>₹11,999</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MZB082QIN</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Smartphones</t>
         </is>
       </c>
     </row>

--- a/product_details.xlsx
+++ b/product_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,25 +496,85 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Samsung Galaxy M21 (Midnight Blue, 4GB RAM, 64GB Storage)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>₹ 13,999.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Bluetooth;WiFi Hotspot</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Smartphone</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>realme Narzo 30A (Laser Black, 32 GB)  (3 GB RAM)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>flipkart</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>₹8,999</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>RMX3171</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Smartphones</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>POCO M3 (Cool Blue, 128 GB)  (6 GB RAM)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>flipkart</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>₹11,999</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MZB087BIN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Smartphones</t>
         </is>
